--- a/data_vacunacion.xlsx
+++ b/data_vacunacion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\OneDrive\Documentos\hv hu 2020\vacunacion_covid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\OneDrive\Documentos\hv hu 2020\vacunacion_covid\Vacunacion-covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B7742B5-D520-4B12-930D-41C72FEB9AA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC86C12-8301-46DC-A09C-71CDE35CCD55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CCDA32A6-C74E-4397-BEB5-AD47423ECCF9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="146">
   <si>
     <t>PAÍS</t>
   </si>
@@ -57,45 +57,24 @@
     <t xml:space="preserve">España </t>
   </si>
   <si>
-    <t>2,58 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alemania </t>
   </si>
   <si>
-    <t>2,23 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reino Unido </t>
   </si>
   <si>
-    <t>0,96 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Francia </t>
   </si>
   <si>
-    <t>1,83 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Italia </t>
   </si>
   <si>
-    <t>2,25 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Portugal </t>
   </si>
   <si>
-    <t>2,42 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Estados Unidos </t>
   </si>
   <si>
-    <t>6,05 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Japón </t>
   </si>
   <si>
@@ -123,15 +102,9 @@
     <t xml:space="preserve">Argentina </t>
   </si>
   <si>
-    <t>0,59 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Austria </t>
   </si>
   <si>
-    <t>2,27 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Australia </t>
   </si>
   <si>
@@ -147,15 +120,9 @@
     <t xml:space="preserve">Bélgica </t>
   </si>
   <si>
-    <t>2,36 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bulgaria </t>
   </si>
   <si>
-    <t>0,43 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baréin </t>
   </si>
   <si>
@@ -165,9 +132,6 @@
     <t xml:space="preserve">Brasil </t>
   </si>
   <si>
-    <t>0,62 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bielorrusia </t>
   </si>
   <si>
@@ -201,21 +165,12 @@
     <t xml:space="preserve">Chipre </t>
   </si>
   <si>
-    <t>2,16 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">República Checa </t>
   </si>
   <si>
-    <t>2,07 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dinamarca </t>
   </si>
   <si>
-    <t>3,03 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">República Dominicana </t>
   </si>
   <si>
@@ -225,51 +180,30 @@
     <t xml:space="preserve">Ecuador </t>
   </si>
   <si>
-    <t>0,01 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Estonia </t>
   </si>
   <si>
-    <t>2,05 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Egipto </t>
   </si>
   <si>
     <t xml:space="preserve">Finlandia </t>
   </si>
   <si>
-    <t>1,37 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grecia </t>
   </si>
   <si>
-    <t>2,4 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guyana </t>
   </si>
   <si>
     <t xml:space="preserve">Croacia </t>
   </si>
   <si>
-    <t>1,43 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hungría </t>
   </si>
   <si>
-    <t>2,14 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Indonesia </t>
   </si>
   <si>
-    <t>0,3 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Irlanda </t>
   </si>
   <si>
@@ -279,24 +213,15 @@
     <t xml:space="preserve">Israel </t>
   </si>
   <si>
-    <t>34,76 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">India </t>
   </si>
   <si>
-    <t>0,1 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Irán </t>
   </si>
   <si>
     <t xml:space="preserve">Islandia </t>
   </si>
   <si>
-    <t>2,9 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Camboya </t>
   </si>
   <si>
@@ -324,15 +249,9 @@
     <t xml:space="preserve">Luxemburgo </t>
   </si>
   <si>
-    <t>1,32 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Letonia </t>
   </si>
   <si>
-    <t>0,88 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marruecos </t>
   </si>
   <si>
@@ -348,9 +267,6 @@
     <t xml:space="preserve">Malta </t>
   </si>
   <si>
-    <t>4,11 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mauricio </t>
   </si>
   <si>
@@ -360,18 +276,12 @@
     <t xml:space="preserve">México </t>
   </si>
   <si>
-    <t>0,36 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Países Bajos </t>
   </si>
   <si>
     <t xml:space="preserve">Noruega </t>
   </si>
   <si>
-    <t>1,86 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nepal </t>
   </si>
   <si>
@@ -405,9 +315,6 @@
     <t xml:space="preserve">Rumanía </t>
   </si>
   <si>
-    <t>3,11 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Serbia </t>
   </si>
   <si>
@@ -423,15 +330,9 @@
     <t xml:space="preserve">Seychelles </t>
   </si>
   <si>
-    <t>22,12 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Suecia </t>
   </si>
   <si>
-    <t>2,11 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Singapur </t>
   </si>
   <si>
@@ -441,34 +342,136 @@
     <t xml:space="preserve">Eslovenia </t>
   </si>
   <si>
-    <t>2,39 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eslovaquia </t>
   </si>
   <si>
-    <t>1,99 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">El Salvador </t>
   </si>
   <si>
     <t xml:space="preserve">Turquía </t>
   </si>
   <si>
-    <t>1,42 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trinidad y Tobago </t>
   </si>
   <si>
     <t xml:space="preserve">Sudáfrica </t>
   </si>
   <si>
-    <t>0,05 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zimbabue </t>
+  </si>
+  <si>
+    <t>2,35 %</t>
+  </si>
+  <si>
+    <t>1,05 %</t>
+  </si>
+  <si>
+    <t>2,08 %</t>
+  </si>
+  <si>
+    <t>2,29 %</t>
+  </si>
+  <si>
+    <t>2,48 %</t>
+  </si>
+  <si>
+    <t>6,88 %</t>
+  </si>
+  <si>
+    <t>0,6 %</t>
+  </si>
+  <si>
+    <t>2,38 %</t>
+  </si>
+  <si>
+    <t>0,5 %</t>
+  </si>
+  <si>
+    <t>0,76 %</t>
+  </si>
+  <si>
+    <t>2,18 %</t>
+  </si>
+  <si>
+    <t>3,1 %</t>
+  </si>
+  <si>
+    <t>2,13 %</t>
+  </si>
+  <si>
+    <t>1,4 %</t>
+  </si>
+  <si>
+    <t>2,67 %</t>
+  </si>
+  <si>
+    <t>1,44 %</t>
+  </si>
+  <si>
+    <t>0,32 %</t>
+  </si>
+  <si>
+    <t>2,69 %</t>
+  </si>
+  <si>
+    <t>36,18 %</t>
+  </si>
+  <si>
+    <t>0,14 %</t>
+  </si>
+  <si>
+    <t>3,4 %</t>
+  </si>
+  <si>
+    <t>2,54 %</t>
+  </si>
+  <si>
+    <t>1,51 %</t>
+  </si>
+  <si>
+    <t>0,89 %</t>
+  </si>
+  <si>
+    <t>0,12 %</t>
+  </si>
+  <si>
+    <t>4,37 %</t>
+  </si>
+  <si>
+    <t>0,41 %</t>
+  </si>
+  <si>
+    <t>2,33 %</t>
+  </si>
+  <si>
+    <t>2,72 %</t>
+  </si>
+  <si>
+    <t>3,18 %</t>
+  </si>
+  <si>
+    <t>7,19 %</t>
+  </si>
+  <si>
+    <t>23,95 %</t>
+  </si>
+  <si>
+    <t>2,28 %</t>
+  </si>
+  <si>
+    <t>2,41 %</t>
+  </si>
+  <si>
+    <t>2,24 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal </t>
+  </si>
+  <si>
+    <t>1,68 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ucrania </t>
   </si>
 </sst>
 </file>
@@ -476,8 +479,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -541,8 +544,8 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
@@ -873,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7D1AE5-B95A-4A4D-9D98-593F8194CF0B}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,164 +915,164 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C2" s="6">
-        <v>3284678</v>
+        <v>3605635</v>
       </c>
       <c r="D2" s="6">
-        <v>2063495</v>
+        <v>2361852</v>
       </c>
       <c r="E2" s="6">
-        <v>1221183</v>
+        <v>1243783</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C3" s="6">
-        <v>5373222</v>
+        <v>5715991</v>
       </c>
       <c r="D3" s="6">
-        <v>3518294</v>
+        <v>3759906</v>
       </c>
       <c r="E3" s="6">
-        <v>1854928</v>
+        <v>1956085</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="C4" s="6">
-        <v>18558969</v>
+        <v>19392553</v>
       </c>
       <c r="D4" s="6">
-        <v>17916181</v>
+        <v>18691835</v>
       </c>
       <c r="E4" s="6">
-        <v>642788</v>
+        <v>700718</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="C5" s="6">
-        <v>3838375</v>
+        <v>4111784</v>
       </c>
       <c r="D5" s="6">
-        <v>2603702</v>
+        <v>2712800</v>
       </c>
       <c r="E5" s="6">
-        <v>1234673</v>
+        <v>1398984</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C6" s="6">
-        <v>3702079</v>
+        <v>3950725</v>
       </c>
       <c r="D6" s="6">
-        <v>2360299</v>
+        <v>2587866</v>
       </c>
       <c r="E6" s="6">
-        <v>1341780</v>
+        <v>1362859</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C7" s="6">
-        <v>694297</v>
+        <v>752317</v>
       </c>
       <c r="D7" s="6">
-        <v>444730</v>
+        <v>497040</v>
       </c>
       <c r="E7" s="6">
-        <v>249567</v>
+        <v>255277</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>44251</v>
+        <v>44253</v>
       </c>
       <c r="C8" s="6">
-        <v>65032083</v>
+        <v>70454064</v>
       </c>
       <c r="D8" s="6">
-        <v>44544969</v>
+        <v>47184199</v>
       </c>
       <c r="E8" s="6">
-        <v>19882544</v>
+        <v>22613359</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>44249</v>
+        <v>44252</v>
       </c>
       <c r="C9" s="6">
-        <v>11934</v>
+        <v>21896</v>
       </c>
       <c r="D9" s="6">
-        <v>11934</v>
+        <v>21896</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>44236</v>
@@ -1084,38 +1087,38 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
-        <v>44246</v>
+        <v>44251</v>
       </c>
       <c r="C11" s="6">
-        <v>2141</v>
+        <v>2390</v>
       </c>
       <c r="D11" s="6">
-        <v>2141</v>
+        <v>2390</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C12" s="6">
-        <v>5668264</v>
+        <v>5846036</v>
       </c>
       <c r="D12" s="6">
         <v>3480415</v>
@@ -1124,92 +1127,92 @@
         <v>2187849</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
-        <v>44246</v>
+        <v>44252</v>
       </c>
       <c r="C13" s="6">
-        <v>4177</v>
+        <v>10135</v>
       </c>
       <c r="D13" s="6">
-        <v>2438</v>
+        <v>6073</v>
       </c>
       <c r="E13" s="6">
-        <v>611</v>
+        <v>655</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C14" s="6">
-        <v>746615</v>
+        <v>829832</v>
       </c>
       <c r="D14" s="6">
-        <v>481689</v>
+        <v>558831</v>
       </c>
       <c r="E14" s="6">
-        <v>264926</v>
+        <v>271001</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C15" s="6">
-        <v>519338</v>
+        <v>582135</v>
       </c>
       <c r="D15" s="6">
-        <v>312624</v>
+        <v>339470</v>
       </c>
       <c r="E15" s="6">
-        <v>201848</v>
+        <v>211897</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C16" s="6">
-        <v>2879</v>
+        <v>11908</v>
       </c>
       <c r="D16" s="6">
-        <v>2879</v>
+        <v>11908</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2">
         <v>44233</v>
@@ -1224,112 +1227,112 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="C18" s="6">
-        <v>19089</v>
+        <v>25578</v>
       </c>
       <c r="D18" s="6">
-        <v>19089</v>
+        <v>25578</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C19" s="6">
-        <v>2491053</v>
+        <v>2850940</v>
       </c>
       <c r="D19" s="6">
-        <v>2491053</v>
+        <v>2850940</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="C20" s="6">
-        <v>688160</v>
+        <v>731352</v>
       </c>
       <c r="D20" s="6">
-        <v>416129</v>
+        <v>442640</v>
       </c>
       <c r="E20" s="6">
-        <v>272031</v>
+        <v>288712</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C21" s="6">
-        <v>148226</v>
+        <v>188512</v>
       </c>
       <c r="D21" s="6">
-        <v>118549</v>
+        <v>153793</v>
       </c>
       <c r="E21" s="6">
-        <v>29677</v>
+        <v>34719</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C22" s="6">
-        <v>281425</v>
+        <v>290103</v>
       </c>
       <c r="D22" s="6">
-        <v>281425</v>
+        <v>290103</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2">
         <v>44238</v>
@@ -1344,32 +1347,32 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C24" s="6">
-        <v>7297061</v>
+        <v>7799000</v>
       </c>
       <c r="D24" s="6">
-        <v>6002873</v>
+        <v>6202055</v>
       </c>
       <c r="E24" s="6">
-        <v>1294188</v>
+        <v>1596945</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2">
         <v>44245</v>
@@ -1384,18 +1387,18 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C26" s="6">
-        <v>1590281</v>
+        <v>1707398</v>
       </c>
       <c r="D26" s="6">
         <v>972407</v>
@@ -1404,12 +1407,12 @@
         <v>307218</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2">
         <v>44248</v>
@@ -1424,52 +1427,52 @@
         <v>172960</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C28" s="6">
-        <v>3092526</v>
+        <v>3207932</v>
       </c>
       <c r="D28" s="6">
-        <v>3037063</v>
+        <v>3152171</v>
       </c>
       <c r="E28" s="6">
-        <v>55463</v>
+        <v>55761</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C29" s="6">
-        <v>48150</v>
+        <v>242000</v>
       </c>
       <c r="D29" s="6">
-        <v>48150</v>
+        <v>81333</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2">
         <v>44249</v>
@@ -1484,92 +1487,92 @@
         <v>44021</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2">
-        <v>44247</v>
+        <v>44250</v>
       </c>
       <c r="C31" s="6">
-        <v>56791</v>
+        <v>64562</v>
       </c>
       <c r="D31" s="6">
-        <v>37570</v>
+        <v>44239</v>
       </c>
       <c r="E31" s="6">
-        <v>19221</v>
+        <v>20323</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C32" s="6">
-        <v>581542</v>
+        <v>623820</v>
       </c>
       <c r="D32" s="6">
-        <v>360618</v>
+        <v>391028</v>
       </c>
       <c r="E32" s="6">
-        <v>220924</v>
+        <v>232792</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2">
-        <v>44249</v>
+        <v>44252</v>
       </c>
       <c r="C33" s="6">
-        <v>511087</v>
+        <v>542597</v>
       </c>
       <c r="D33" s="6">
-        <v>334458</v>
+        <v>362158</v>
       </c>
       <c r="E33" s="6">
-        <v>176629</v>
+        <v>180439</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2">
-        <v>44248</v>
+        <v>44251</v>
       </c>
       <c r="C34" s="6">
-        <v>14264</v>
+        <v>26400</v>
       </c>
       <c r="D34" s="6">
-        <v>0</v>
+        <v>26400</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2">
         <v>44246</v>
@@ -1584,52 +1587,52 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2">
-        <v>44244</v>
+        <v>44251</v>
       </c>
       <c r="C36" s="6">
-        <v>8190</v>
+        <v>24492</v>
       </c>
       <c r="D36" s="6">
-        <v>6228</v>
+        <v>20784</v>
       </c>
       <c r="E36" s="6">
-        <v>1962</v>
+        <v>3708</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C37" s="6">
-        <v>91785</v>
+        <v>96980</v>
       </c>
       <c r="D37" s="6">
-        <v>64508</v>
+        <v>68629</v>
       </c>
       <c r="E37" s="6">
-        <v>27277</v>
+        <v>28351</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2">
         <v>44226</v>
@@ -1644,52 +1647,52 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2">
-        <v>44248</v>
+        <v>44252</v>
       </c>
       <c r="C39" s="6">
-        <v>363938</v>
+        <v>396861</v>
       </c>
       <c r="D39" s="6">
-        <v>287998</v>
+        <v>319559</v>
       </c>
       <c r="E39" s="6">
-        <v>75940</v>
+        <v>77302</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C40" s="6">
-        <v>762624</v>
+        <v>826370</v>
       </c>
       <c r="D40" s="6">
-        <v>505148</v>
+        <v>540039</v>
       </c>
       <c r="E40" s="6">
-        <v>257476</v>
+        <v>286331</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2">
         <v>44249</v>
@@ -1704,132 +1707,132 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2">
-        <v>44249</v>
+        <v>44252</v>
       </c>
       <c r="C42" s="6">
-        <v>166146</v>
+        <v>194267</v>
       </c>
       <c r="D42" s="6">
-        <v>108311</v>
+        <v>135756</v>
       </c>
       <c r="E42" s="6">
-        <v>57835</v>
+        <v>58511</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C43" s="6">
-        <v>679850</v>
+        <v>761905</v>
       </c>
       <c r="D43" s="6">
-        <v>471004</v>
+        <v>521283</v>
       </c>
       <c r="E43" s="6">
-        <v>208846</v>
+        <v>240622</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C44" s="6">
-        <v>2059871</v>
+        <v>2315665</v>
       </c>
       <c r="D44" s="6">
-        <v>1269905</v>
+        <v>1461920</v>
       </c>
       <c r="E44" s="6">
-        <v>789966</v>
+        <v>853745</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2">
-        <v>44247</v>
+        <v>44249</v>
       </c>
       <c r="C45" s="6">
-        <v>350322</v>
+        <v>359616</v>
       </c>
       <c r="D45" s="6">
-        <v>219899</v>
+        <v>226291</v>
       </c>
       <c r="E45" s="6">
-        <v>130423</v>
+        <v>133325</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B46" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C46" s="6">
-        <v>7683753</v>
+        <v>7924356</v>
       </c>
       <c r="D46" s="6">
-        <v>4537244</v>
+        <v>4649708</v>
       </c>
       <c r="E46" s="6">
-        <v>3146509</v>
+        <v>3274648</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B47" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C47" s="6">
-        <v>11907392</v>
+        <v>13067047</v>
       </c>
       <c r="D47" s="6">
-        <v>10585757</v>
+        <v>11206188</v>
       </c>
       <c r="E47" s="6">
-        <v>1321635</v>
+        <v>1860859</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2">
         <v>44244</v>
@@ -1844,52 +1847,52 @@
         <v>0</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C49" s="6">
-        <v>27933</v>
+        <v>31451</v>
       </c>
       <c r="D49" s="6">
-        <v>17379</v>
+        <v>19075</v>
       </c>
       <c r="E49" s="6">
-        <v>10554</v>
+        <v>12376</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B50" s="2">
-        <v>44246</v>
+        <v>44252</v>
       </c>
       <c r="C50" s="6">
-        <v>4609</v>
+        <v>13101</v>
       </c>
       <c r="D50" s="6">
-        <v>4609</v>
+        <v>13101</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B51" s="2">
         <v>44242</v>
@@ -1904,18 +1907,18 @@
         <v>38000</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B52" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C52" s="6">
-        <v>19394</v>
+        <v>23833</v>
       </c>
       <c r="D52" s="6">
         <v>0</v>
@@ -1924,12 +1927,12 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B53" s="2">
         <v>44248</v>
@@ -1944,18 +1947,18 @@
         <v>0</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B54" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="C54" s="6">
-        <v>366907</v>
+        <v>393469</v>
       </c>
       <c r="D54" s="6">
         <v>0</v>
@@ -1964,92 +1967,92 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B55" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="C55" s="6">
-        <v>202733</v>
+        <v>213945</v>
       </c>
       <c r="D55" s="6">
-        <v>132888</v>
+        <v>143092</v>
       </c>
       <c r="E55" s="6">
-        <v>69845</v>
+        <v>70853</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="C56" s="6">
-        <v>31926</v>
+        <v>34760</v>
       </c>
       <c r="D56" s="6">
-        <v>23685</v>
+        <v>25285</v>
       </c>
       <c r="E56" s="6">
-        <v>8241</v>
+        <v>9475</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C57" s="6">
-        <v>49834</v>
+        <v>57592</v>
       </c>
       <c r="D57" s="6">
-        <v>32990</v>
+        <v>40680</v>
       </c>
       <c r="E57" s="6">
-        <v>16844</v>
+        <v>16912</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C58" s="6">
-        <v>2667091</v>
+        <v>3204105</v>
       </c>
       <c r="D58" s="6">
-        <v>2635859</v>
+        <v>3160479</v>
       </c>
       <c r="E58" s="6">
-        <v>31232</v>
+        <v>43626</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2">
         <v>44214</v>
@@ -2064,12 +2067,12 @@
         <v>0</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B60" s="2">
         <v>44229</v>
@@ -2078,38 +2081,38 @@
         <v>103142</v>
       </c>
       <c r="D60" s="6">
-        <v>0</v>
+        <v>103142</v>
       </c>
       <c r="E60" s="6">
         <v>0</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="B61" s="2">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="C61" s="6">
-        <v>66334</v>
+        <v>71562</v>
       </c>
       <c r="D61" s="6">
-        <v>45174</v>
+        <v>49061</v>
       </c>
       <c r="E61" s="6">
-        <v>21160</v>
+        <v>22501</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2">
         <v>44244</v>
@@ -2124,18 +2127,18 @@
         <v>0</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B63" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C63" s="6">
-        <v>85110</v>
+        <v>98311</v>
       </c>
       <c r="D63" s="6">
         <v>0</v>
@@ -2144,38 +2147,38 @@
         <v>0</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C64" s="6">
-        <v>1801156</v>
+        <v>2088813</v>
       </c>
       <c r="D64" s="6">
-        <v>1336854</v>
+        <v>1562401</v>
       </c>
       <c r="E64" s="6">
-        <v>464302</v>
+        <v>526412</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="C65" s="6">
-        <v>835554</v>
+        <v>891621</v>
       </c>
       <c r="D65" s="6">
         <v>0</v>
@@ -2184,32 +2187,32 @@
         <v>0</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="C66" s="6">
-        <v>392858</v>
+        <v>433295</v>
       </c>
       <c r="D66" s="6">
-        <v>293280</v>
+        <v>308145</v>
       </c>
       <c r="E66" s="6">
-        <v>99578</v>
+        <v>125150</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B67" s="2">
         <v>44247</v>
@@ -2224,12 +2227,12 @@
         <v>0</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B68" s="2">
         <v>44247</v>
@@ -2244,12 +2247,12 @@
         <v>0</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2">
         <v>44250</v>
@@ -2264,18 +2267,18 @@
         <v>19019</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C70" s="6">
-        <v>60088</v>
+        <v>89419</v>
       </c>
       <c r="D70" s="6">
         <v>0</v>
@@ -2284,32 +2287,32 @@
         <v>0</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="C71" s="6">
-        <v>204046</v>
+        <v>225296</v>
       </c>
       <c r="D71" s="6">
-        <v>204046</v>
+        <v>225296</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2">
         <v>44248</v>
@@ -2324,32 +2327,32 @@
         <v>0</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="C73" s="6">
-        <v>2759436</v>
+        <v>2990683</v>
       </c>
       <c r="D73" s="6">
-        <v>1824654</v>
+        <v>1959165</v>
       </c>
       <c r="E73" s="6">
-        <v>934782</v>
+        <v>1031518</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2">
         <v>44245</v>
@@ -2364,52 +2367,52 @@
         <v>0</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C75" s="6">
-        <v>1438433</v>
+        <v>1486908</v>
       </c>
       <c r="D75" s="6">
-        <v>836860</v>
+        <v>872361</v>
       </c>
       <c r="E75" s="6">
-        <v>601573</v>
+        <v>614547</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2">
-        <v>44244</v>
+        <v>44252</v>
       </c>
       <c r="C76" s="6">
-        <v>945989</v>
+        <v>1375872</v>
       </c>
       <c r="D76" s="6">
-        <v>635000</v>
+        <v>878143</v>
       </c>
       <c r="E76" s="6">
-        <v>182000</v>
+        <v>497729</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2">
         <v>44237</v>
@@ -2424,18 +2427,18 @@
         <v>1700000</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2">
-        <v>44245</v>
+        <v>44251</v>
       </c>
       <c r="C78" s="6">
-        <v>501710</v>
+        <v>600798</v>
       </c>
       <c r="D78" s="6">
         <v>0</v>
@@ -2444,52 +2447,52 @@
         <v>0</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="C79" s="6">
-        <v>65576</v>
+        <v>70568</v>
       </c>
       <c r="D79" s="6">
-        <v>43977</v>
+        <v>47188</v>
       </c>
       <c r="E79" s="6">
-        <v>21599</v>
+        <v>23380</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C80" s="6">
-        <v>645261</v>
+        <v>690271</v>
       </c>
       <c r="D80" s="6">
-        <v>427783</v>
+        <v>454996</v>
       </c>
       <c r="E80" s="6">
-        <v>217478</v>
+        <v>235275</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2">
         <v>44245</v>
@@ -2504,147 +2507,187 @@
         <v>110000</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="C82" s="6">
-        <v>145141</v>
+        <v>151862</v>
       </c>
       <c r="D82" s="6">
-        <v>94999</v>
+        <v>101344</v>
       </c>
       <c r="E82" s="6">
-        <v>50142</v>
+        <v>50518</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C83" s="6">
-        <v>394790</v>
+        <v>419575</v>
       </c>
       <c r="D83" s="6">
-        <v>286408</v>
+        <v>297496</v>
       </c>
       <c r="E83" s="6">
-        <v>108382</v>
+        <v>122079</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B84" s="2">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="C84" s="6">
-        <v>6000</v>
+        <v>4087</v>
       </c>
       <c r="D84" s="6">
-        <v>0</v>
+        <v>4087</v>
       </c>
       <c r="E84" s="6">
         <v>0</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="C85" s="6">
-        <v>7289498</v>
+        <v>6000</v>
       </c>
       <c r="D85" s="6">
-        <v>6106522</v>
+        <v>0</v>
       </c>
       <c r="E85" s="6">
-        <v>1182976</v>
+        <v>0</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2">
-        <v>44249</v>
+        <v>44252</v>
       </c>
       <c r="C86" s="6">
-        <v>440</v>
+        <v>7979726</v>
       </c>
       <c r="D86" s="6">
-        <v>440</v>
+        <v>6582239</v>
       </c>
       <c r="E86" s="6">
-        <v>0</v>
+        <v>1397487</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="C87" s="6">
-        <v>32315</v>
+        <v>440</v>
       </c>
       <c r="D87" s="6">
-        <v>32315</v>
+        <v>440</v>
       </c>
       <c r="E87" s="6">
-        <v>32315</v>
+        <v>0</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="C88" s="6">
-        <v>4041</v>
+        <v>1338</v>
       </c>
       <c r="D88" s="6">
-        <v>4041</v>
+        <v>0</v>
       </c>
       <c r="E88" s="6">
         <v>0</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" s="2">
+        <v>44252</v>
+      </c>
+      <c r="C89" s="6">
+        <v>52647</v>
+      </c>
+      <c r="D89" s="6">
+        <v>52647</v>
+      </c>
+      <c r="E89" s="6">
+        <v>52647</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="2">
+        <v>44252</v>
+      </c>
+      <c r="C90" s="6">
+        <v>11007</v>
+      </c>
+      <c r="D90" s="6">
+        <v>11007</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data_vacunacion.xlsx
+++ b/data_vacunacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\OneDrive\Documentos\hv hu 2020\vacunacion_covid\Vacunacion-covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC86C12-8301-46DC-A09C-71CDE35CCD55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78E2072-6100-404F-A4E4-4DE1D603D762}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CCDA32A6-C74E-4397-BEB5-AD47423ECCF9}"/>
   </bookViews>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7D1AE5-B95A-4A4D-9D98-593F8194CF0B}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F90"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,13 +1455,13 @@
         <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>44252</v>
+        <v>44254</v>
       </c>
       <c r="C29" s="6">
         <v>242000</v>
       </c>
       <c r="D29" s="6">
-        <v>81333</v>
+        <v>114042</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>

--- a/data_vacunacion.xlsx
+++ b/data_vacunacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\OneDrive\Documentos\hv hu 2020\vacunacion_covid\Vacunacion-covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78E2072-6100-404F-A4E4-4DE1D603D762}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1936C018-DB38-4D37-8D83-1C7ABD2B81AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CCDA32A6-C74E-4397-BEB5-AD47423ECCF9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="152">
   <si>
     <t>PAÍS</t>
   </si>
@@ -472,6 +472,24 @@
   </si>
   <si>
     <t xml:space="preserve">Ucrania </t>
+  </si>
+  <si>
+    <t>Continente</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Africa</t>
   </si>
 </sst>
 </file>
@@ -876,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7D1AE5-B95A-4A4D-9D98-593F8194CF0B}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,9 +906,10 @@
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,8 +928,11 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="F2" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +974,11 @@
       <c r="F3" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +997,11 @@
       <c r="F4" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1020,11 @@
       <c r="F5" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1009,8 +1043,11 @@
       <c r="F6" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1066,11 @@
       <c r="F7" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1049,8 +1089,11 @@
       <c r="F8" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1069,8 +1112,11 @@
       <c r="F9" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1089,8 +1135,11 @@
       <c r="F10" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1109,8 +1158,11 @@
       <c r="F11" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1129,8 +1181,11 @@
       <c r="F12" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1149,8 +1204,11 @@
       <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1169,8 +1227,11 @@
       <c r="F14" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1189,8 +1250,11 @@
       <c r="F15" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1209,8 +1273,11 @@
       <c r="F16" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1229,8 +1296,11 @@
       <c r="F17" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -1249,8 +1319,11 @@
       <c r="F18" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -1269,8 +1342,11 @@
       <c r="F19" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1289,8 +1365,11 @@
       <c r="F20" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1309,8 +1388,11 @@
       <c r="F21" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1329,8 +1411,11 @@
       <c r="F22" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1349,8 +1434,11 @@
       <c r="F23" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -1369,8 +1457,11 @@
       <c r="F24" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -1389,8 +1480,11 @@
       <c r="F25" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -1409,8 +1503,11 @@
       <c r="F26" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1429,8 +1526,11 @@
       <c r="F27" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -1449,8 +1549,11 @@
       <c r="F28" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -1469,8 +1572,11 @@
       <c r="F29" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -1489,8 +1595,11 @@
       <c r="F30" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1509,8 +1618,11 @@
       <c r="F31" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -1529,8 +1641,11 @@
       <c r="F32" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -1549,8 +1664,11 @@
       <c r="F33" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -1569,8 +1687,11 @@
       <c r="F34" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -1589,8 +1710,11 @@
       <c r="F35" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -1609,8 +1733,11 @@
       <c r="F36" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -1629,8 +1756,11 @@
       <c r="F37" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -1649,8 +1779,11 @@
       <c r="F38" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -1669,8 +1802,11 @@
       <c r="F39" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -1689,8 +1825,11 @@
       <c r="F40" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -1709,8 +1848,11 @@
       <c r="F41" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -1729,8 +1871,11 @@
       <c r="F42" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -1749,8 +1894,11 @@
       <c r="F43" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -1769,8 +1917,11 @@
       <c r="F44" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -1789,8 +1940,11 @@
       <c r="F45" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -1809,8 +1963,11 @@
       <c r="F46" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -1829,8 +1986,11 @@
       <c r="F47" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -1849,8 +2009,11 @@
       <c r="F48" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -1869,8 +2032,11 @@
       <c r="F49" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -1889,8 +2055,11 @@
       <c r="F50" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
@@ -1909,8 +2078,11 @@
       <c r="F51" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
@@ -1929,8 +2101,11 @@
       <c r="F52" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
@@ -1949,8 +2124,11 @@
       <c r="F53" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -1969,8 +2147,11 @@
       <c r="F54" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>68</v>
       </c>
@@ -1989,8 +2170,11 @@
       <c r="F55" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>70</v>
       </c>
@@ -2009,8 +2193,11 @@
       <c r="F56" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>71</v>
       </c>
@@ -2029,8 +2216,11 @@
       <c r="F57" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>72</v>
       </c>
@@ -2049,8 +2239,11 @@
       <c r="F58" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>74</v>
       </c>
@@ -2069,8 +2262,11 @@
       <c r="F59" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>75</v>
       </c>
@@ -2089,8 +2285,11 @@
       <c r="F60" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>76</v>
       </c>
@@ -2109,8 +2308,11 @@
       <c r="F61" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>77</v>
       </c>
@@ -2129,8 +2331,11 @@
       <c r="F62" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>78</v>
       </c>
@@ -2149,8 +2354,11 @@
       <c r="F63" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>79</v>
       </c>
@@ -2169,8 +2377,11 @@
       <c r="F64" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>80</v>
       </c>
@@ -2189,8 +2400,11 @@
       <c r="F65" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>81</v>
       </c>
@@ -2209,8 +2423,11 @@
       <c r="F66" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>82</v>
       </c>
@@ -2229,8 +2446,11 @@
       <c r="F67" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>83</v>
       </c>
@@ -2249,8 +2469,11 @@
       <c r="F68" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
@@ -2269,8 +2492,11 @@
       <c r="F69" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>86</v>
       </c>
@@ -2289,8 +2515,11 @@
       <c r="F70" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>87</v>
       </c>
@@ -2309,8 +2538,11 @@
       <c r="F71" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>88</v>
       </c>
@@ -2329,8 +2561,11 @@
       <c r="F72" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
@@ -2349,8 +2584,11 @@
       <c r="F73" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>91</v>
       </c>
@@ -2369,8 +2607,11 @@
       <c r="F74" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>92</v>
       </c>
@@ -2389,8 +2630,11 @@
       <c r="F75" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
@@ -2409,8 +2653,11 @@
       <c r="F76" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
@@ -2429,8 +2676,11 @@
       <c r="F77" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>96</v>
       </c>
@@ -2449,8 +2699,11 @@
       <c r="F78" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>97</v>
       </c>
@@ -2469,8 +2722,11 @@
       <c r="F79" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>98</v>
       </c>
@@ -2489,8 +2745,11 @@
       <c r="F80" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>99</v>
       </c>
@@ -2509,8 +2768,11 @@
       <c r="F81" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>101</v>
       </c>
@@ -2529,8 +2791,11 @@
       <c r="F82" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>102</v>
       </c>
@@ -2549,8 +2814,11 @@
       <c r="F83" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>143</v>
       </c>
@@ -2569,8 +2837,11 @@
       <c r="F84" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G84" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>103</v>
       </c>
@@ -2589,8 +2860,11 @@
       <c r="F85" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>104</v>
       </c>
@@ -2609,8 +2883,11 @@
       <c r="F86" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>105</v>
       </c>
@@ -2629,8 +2906,11 @@
       <c r="F87" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>145</v>
       </c>
@@ -2649,8 +2929,11 @@
       <c r="F88" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>106</v>
       </c>
@@ -2669,8 +2952,11 @@
       <c r="F89" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>107</v>
       </c>
@@ -2688,6 +2974,9 @@
       </c>
       <c r="F90" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="G90" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
